--- a/TestExcel/output011.xlsx
+++ b/TestExcel/output011.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repo\albertpython\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89401AA-1783-4C01-B17C-A107EB1798CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2968888-2A57-4C31-B99F-5C4EEB68DF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Rank</t>
   </si>
@@ -117,6 +118,34 @@
   </si>
   <si>
     <t>2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>India2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South 2Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canad2a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VietNa2m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,13 +533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -538,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -552,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -566,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -580,7 +609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -594,7 +623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -608,7 +637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -630,4 +659,133 @@
     <ignoredError sqref="A2:D8 A1:B1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA7CD32-2D09-46E5-895E-CA3D38DDB145}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>